--- a/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/divisão_por_cod_xpe.xlsx
+++ b/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/divisão_por_cod_xpe.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,6 +605,29 @@
         <v>10197</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
